--- a/games/Levels/configExcel/HeroDisplay.xlsx
+++ b/games/Levels/configExcel/HeroDisplay.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\小雷\合并三国\关卡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A72EE-CE9A-4F0F-B2C9-2A43BE653EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="15470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Event" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -90,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a_shibing_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_shibing_2;a_shibing_3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌等级1对应武将</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,14 +145,42 @@
   </si>
   <si>
     <t>#comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_liubei;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_zhangfei;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_guanyu;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_guanyu2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_wujiang4;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_wujiuang3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_wujiang2;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +260,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -241,20 +268,22 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -515,69 +544,69 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.28515625" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="20.23046875" defaultRowHeight="26.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.3828125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="26.15234375" customWidth="1"/>
+    <col min="6" max="6" width="25.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" customHeight="1">
+    <row r="1" spans="1:12" ht="26.15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="26" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="26.15" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -612,50 +641,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="26" customHeight="1">
+    <row r="3" spans="1:12" ht="26.15" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.15" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.15" customHeight="1">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -671,19 +697,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.23046875" customWidth="1"/>
+    <col min="3" max="3" width="25.23046875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -769,7 +795,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/games/Levels/configExcel/HeroDisplay.xlsx
+++ b/games/Levels/configExcel/HeroDisplay.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\小雷\合并三国\关卡\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A72EE-CE9A-4F0F-B2C9-2A43BE653EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="15470" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28120" yWindow="4940" windowWidth="25620" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -88,14 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌等级1对应武将</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,39 +134,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a_liubei;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_zhangfei;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_guanyu;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_guanyu2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_wujiang4;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_wujiuang3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_wujiang2;</t>
+    <t>a_liubei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_zhangfei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_guanyu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_liubei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_zhangfei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_wujiang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_guanyu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_wujiuang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_guanyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_wujiang4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,8 +239,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,8 +263,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="17">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -268,13 +271,16 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -544,144 +550,152 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.23046875" defaultRowHeight="26.15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.28515625" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.3828125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="26.15234375" customWidth="1"/>
-    <col min="6" max="6" width="25.84375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.15" customHeight="1">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="26.15" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="26.25" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="26.15" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.25" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26.15" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.25" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.15" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -697,19 +711,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.23046875" customWidth="1"/>
-    <col min="3" max="3" width="25.23046875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.3828125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -795,7 +809,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
